--- a/custom plots/10pct_0WSt_and_iCar-Thixotropy_031024_fit.xlsx
+++ b/custom plots/10pct_0WSt_and_iCar-Thixotropy_031024_fit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,81 @@
         <v>3.442918254066386</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10%_0WSt_kCar_1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-164.5681764470073</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.645852121809451</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07752968282954108</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002211246080797293</v>
+      </c>
+      <c r="F7" t="n">
+        <v>404.0117296072254</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.491151435698671</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10%_0WSt_kCar_2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-130.5920206515675</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.223792544422935</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08099504891644603</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002479759855658115</v>
+      </c>
+      <c r="F8" t="n">
+        <v>390.4951195188706</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.098563056362585</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10%_0WSt_kCar_3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-62.0559463280163</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.988344031710459</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1922832153837944</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.006000398964713743</v>
+      </c>
+      <c r="F9" t="n">
+        <v>541.0181235241719</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.373781092379696</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/custom plots/10pct_0WSt_and_iCar-Thixotropy_031024_fit.xlsx
+++ b/custom plots/10pct_0WSt_and_iCar-Thixotropy_031024_fit.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10%_0WSt_1</t>
+          <t>10%_0WSt</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -498,7 +498,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10%_0WSt_2</t>
+          <t>10%_0WSt</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -523,151 +523,151 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10%_0WSt_iCar_1</t>
+          <t>10%_0WSt_iCar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-7.439064123759353</v>
+        <v>-7.439138896617572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.892565673887675</v>
+        <v>0.8925169874153203</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3650838742594837</v>
+        <v>0.3650825561207396</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01564358496746959</v>
+        <v>0.01564421798854901</v>
       </c>
       <c r="F4" t="n">
-        <v>445.259271672247</v>
+        <v>445.2594158827805</v>
       </c>
       <c r="G4" t="n">
-        <v>1.884148742674603</v>
+        <v>1.884122927256547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10%_0WSt_iCar_2</t>
+          <t>10%_0WSt_iCar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-12.65729657385496</v>
+        <v>-12.6572547518657</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8497294042566578</v>
+        <v>0.8497356174801666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2086491605799933</v>
+        <v>0.20864954108277</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007553671030717673</v>
+        <v>0.007553550967814023</v>
       </c>
       <c r="F5" t="n">
-        <v>464.0059425765147</v>
+        <v>464.0058958314584</v>
       </c>
       <c r="G5" t="n">
-        <v>1.093366212104607</v>
+        <v>1.093367294256617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10%_0WSt_iCar_3</t>
+          <t>10%_0WSt_iCar</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.121223590726649</v>
+        <v>-7.121161311222956</v>
       </c>
       <c r="C6" t="n">
-        <v>2.349662389524862</v>
+        <v>2.349629285851734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2677591096691751</v>
+        <v>0.2677602238641908</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04133522176997278</v>
+        <v>0.04133612357866206</v>
       </c>
       <c r="F6" t="n">
-        <v>518.0433807412085</v>
+        <v>518.0433011389191</v>
       </c>
       <c r="G6" t="n">
-        <v>3.442918254066386</v>
+        <v>3.442910313331477</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10%_0WSt_kCar_1</t>
+          <t>10%_0WSt_kCar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-164.5681764470073</v>
+        <v>-164.5681582554509</v>
       </c>
       <c r="C7" t="n">
-        <v>3.645852121809451</v>
+        <v>3.645853751844414</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07752968282954108</v>
+        <v>0.07752969621069035</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002211246080797293</v>
+        <v>0.002211238148403796</v>
       </c>
       <c r="F7" t="n">
-        <v>404.0117296072254</v>
+        <v>404.0117177619999</v>
       </c>
       <c r="G7" t="n">
-        <v>3.491151435698671</v>
+        <v>3.491151475265841</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10%_0WSt_kCar_2</t>
+          <t>10%_0WSt_kCar</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-130.5920206515675</v>
+        <v>-130.5920078823785</v>
       </c>
       <c r="C8" t="n">
-        <v>3.223792544422935</v>
+        <v>3.223794104163151</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08099504891644603</v>
+        <v>0.08099506068133736</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002479759855658115</v>
+        <v>0.002479750609751343</v>
       </c>
       <c r="F8" t="n">
-        <v>390.4951195188706</v>
+        <v>390.4951110272744</v>
       </c>
       <c r="G8" t="n">
-        <v>3.098563056362585</v>
+        <v>3.098563105642977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10%_0WSt_kCar_3</t>
+          <t>10%_0WSt_kCar</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-62.0559463280163</v>
+        <v>-62.05574561341385</v>
       </c>
       <c r="C9" t="n">
-        <v>2.988344031710459</v>
+        <v>2.98836497265185</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1922832153837944</v>
+        <v>0.1922836337027775</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006000398964713743</v>
+        <v>0.006000254966131018</v>
       </c>
       <c r="F9" t="n">
-        <v>541.0181235241719</v>
+        <v>541.017927904228</v>
       </c>
       <c r="G9" t="n">
-        <v>3.373781092379696</v>
+        <v>3.373784954196247</v>
       </c>
     </row>
   </sheetData>
